--- a/fondamentaux/data/results_by_districts_paris.xlsx
+++ b/fondamentaux/data/results_by_districts_paris.xlsx
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -538,32 +538,32 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5212</v>
+        <v>6127</v>
       </c>
       <c r="F4" t="n">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>665</v>
+        <v>2289</v>
       </c>
       <c r="H4" t="n">
-        <v>1493</v>
+        <v>439</v>
       </c>
       <c r="I4" t="n">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="J4" t="n">
-        <v>1808</v>
+        <v>2641</v>
       </c>
       <c r="K4" t="n">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="L4" t="n">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -583,32 +583,32 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4843</v>
+        <v>5212</v>
       </c>
       <c r="F5" t="n">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="G5" t="n">
-        <v>1077</v>
+        <v>665</v>
       </c>
       <c r="H5" t="n">
-        <v>1038</v>
+        <v>1493</v>
       </c>
       <c r="I5" t="n">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="J5" t="n">
-        <v>1758</v>
+        <v>1808</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="L5" t="n">
-        <v>237</v>
+        <v>425</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -628,32 +628,32 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>8339</v>
+        <v>4843</v>
       </c>
       <c r="F6" t="n">
-        <v>660</v>
+        <v>295</v>
       </c>
       <c r="G6" t="n">
-        <v>2546</v>
+        <v>1077</v>
       </c>
       <c r="H6" t="n">
-        <v>364</v>
+        <v>1038</v>
       </c>
       <c r="I6" t="n">
-        <v>853</v>
+        <v>177</v>
       </c>
       <c r="J6" t="n">
-        <v>3278</v>
+        <v>1758</v>
       </c>
       <c r="K6" t="n">
-        <v>491</v>
+        <v>261</v>
       </c>
       <c r="L6" t="n">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -673,32 +673,32 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>6256</v>
+        <v>8339</v>
       </c>
       <c r="F7" t="n">
-        <v>219</v>
+        <v>660</v>
       </c>
       <c r="G7" t="n">
-        <v>2252</v>
+        <v>2546</v>
       </c>
       <c r="H7" t="n">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="I7" t="n">
-        <v>188</v>
+        <v>853</v>
       </c>
       <c r="J7" t="n">
-        <v>2577</v>
+        <v>3278</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>491</v>
       </c>
       <c r="L7" t="n">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -718,30 +718,32 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>6079</v>
+        <v>6256</v>
       </c>
       <c r="F8" t="n">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="G8" t="n">
-        <v>1663</v>
+        <v>2252</v>
       </c>
       <c r="H8" t="n">
-        <v>659</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>418</v>
+      </c>
+      <c r="I8" t="n">
+        <v>188</v>
+      </c>
       <c r="J8" t="n">
-        <v>3144</v>
+        <v>2577</v>
       </c>
       <c r="K8" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L8" t="n">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -750,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -761,32 +763,30 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>5430</v>
+        <v>6079</v>
       </c>
       <c r="F9" t="n">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G9" t="n">
-        <v>956</v>
+        <v>1663</v>
       </c>
       <c r="H9" t="n">
-        <v>623</v>
-      </c>
-      <c r="I9" t="n">
-        <v>753</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1434</v>
+        <v>3144</v>
       </c>
       <c r="K9" t="n">
-        <v>530</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>948</v>
+        <v>153</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -806,30 +806,32 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5196</v>
+        <v>5430</v>
       </c>
       <c r="F10" t="n">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G10" t="n">
-        <v>1524</v>
+        <v>956</v>
       </c>
       <c r="H10" t="n">
-        <v>512</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>623</v>
+      </c>
+      <c r="I10" t="n">
+        <v>753</v>
+      </c>
       <c r="J10" t="n">
-        <v>2033</v>
+        <v>1434</v>
       </c>
       <c r="K10" t="n">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="L10" t="n">
-        <v>392</v>
+        <v>948</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1070,32 +1072,32 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>5746</v>
+        <v>6736</v>
       </c>
       <c r="F16" t="n">
-        <v>385</v>
+        <v>90</v>
       </c>
       <c r="G16" t="n">
-        <v>867</v>
+        <v>2231</v>
       </c>
       <c r="H16" t="n">
-        <v>1989</v>
+        <v>2016</v>
       </c>
       <c r="I16" t="n">
-        <v>501</v>
+        <v>621</v>
       </c>
       <c r="J16" t="n">
-        <v>1472</v>
+        <v>1543</v>
       </c>
       <c r="K16" t="n">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="L16" t="n">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1115,32 +1117,32 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5236</v>
+        <v>5746</v>
       </c>
       <c r="F17" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G17" t="n">
-        <v>1336</v>
+        <v>867</v>
       </c>
       <c r="H17" t="n">
-        <v>1516</v>
+        <v>1989</v>
       </c>
       <c r="I17" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="J17" t="n">
-        <v>1266</v>
+        <v>1472</v>
       </c>
       <c r="K17" t="n">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="L17" t="n">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1160,32 +1162,32 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>9703</v>
+        <v>5236</v>
       </c>
       <c r="F18" t="n">
-        <v>993</v>
+        <v>390</v>
       </c>
       <c r="G18" t="n">
-        <v>3595</v>
+        <v>1336</v>
       </c>
       <c r="H18" t="n">
-        <v>509</v>
+        <v>1516</v>
       </c>
       <c r="I18" t="n">
-        <v>995</v>
+        <v>251</v>
       </c>
       <c r="J18" t="n">
-        <v>3015</v>
+        <v>1266</v>
       </c>
       <c r="K18" t="n">
-        <v>444</v>
+        <v>233</v>
       </c>
       <c r="L18" t="n">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1205,32 +1207,32 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>7245</v>
+        <v>9703</v>
       </c>
       <c r="F19" t="n">
-        <v>362</v>
+        <v>993</v>
       </c>
       <c r="G19" t="n">
-        <v>2806</v>
+        <v>3595</v>
       </c>
       <c r="H19" t="n">
-        <v>1097</v>
+        <v>509</v>
       </c>
       <c r="I19" t="n">
-        <v>246</v>
+        <v>995</v>
       </c>
       <c r="J19" t="n">
-        <v>2130</v>
+        <v>3015</v>
       </c>
       <c r="K19" t="n">
-        <v>275</v>
+        <v>444</v>
       </c>
       <c r="L19" t="n">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1250,30 +1252,32 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>6857</v>
+        <v>7245</v>
       </c>
       <c r="F20" t="n">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="G20" t="n">
-        <v>1565</v>
+        <v>2806</v>
       </c>
       <c r="H20" t="n">
-        <v>2260</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1097</v>
+      </c>
+      <c r="I20" t="n">
+        <v>246</v>
+      </c>
       <c r="J20" t="n">
-        <v>1663</v>
+        <v>2130</v>
       </c>
       <c r="K20" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L20" t="n">
-        <v>905</v>
+        <v>329</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1293,32 +1297,30 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>6173</v>
+        <v>6857</v>
       </c>
       <c r="F21" t="n">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="G21" t="n">
-        <v>1222</v>
+        <v>1565</v>
       </c>
       <c r="H21" t="n">
-        <v>1139</v>
-      </c>
-      <c r="I21" t="n">
-        <v>897</v>
-      </c>
+        <v>2260</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>1236</v>
+        <v>1663</v>
       </c>
       <c r="K21" t="n">
-        <v>420</v>
+        <v>272</v>
       </c>
       <c r="L21" t="n">
-        <v>975</v>
+        <v>905</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1338,30 +1340,32 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>5898</v>
+        <v>6173</v>
       </c>
       <c r="F22" t="n">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="G22" t="n">
-        <v>2050</v>
+        <v>1222</v>
       </c>
       <c r="H22" t="n">
-        <v>890</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1139</v>
+      </c>
+      <c r="I22" t="n">
+        <v>897</v>
+      </c>
       <c r="J22" t="n">
-        <v>1716</v>
+        <v>1236</v>
       </c>
       <c r="K22" t="n">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="L22" t="n">
-        <v>481</v>
+        <v>975</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1602,32 +1606,32 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>10375</v>
+        <v>11974</v>
       </c>
       <c r="F28" t="n">
-        <v>739</v>
+        <v>225</v>
       </c>
       <c r="G28" t="n">
-        <v>1776</v>
+        <v>6685</v>
       </c>
       <c r="H28" t="n">
-        <v>3805</v>
+        <v>1237</v>
       </c>
       <c r="I28" t="n">
-        <v>827</v>
+        <v>1111</v>
       </c>
       <c r="J28" t="n">
-        <v>2379</v>
+        <v>2458</v>
       </c>
       <c r="K28" t="n">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="L28" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1640,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1647,32 +1651,32 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>9595</v>
+        <v>10375</v>
       </c>
       <c r="F29" t="n">
-        <v>842</v>
+        <v>739</v>
       </c>
       <c r="G29" t="n">
-        <v>2918</v>
+        <v>1776</v>
       </c>
       <c r="H29" t="n">
-        <v>2679</v>
+        <v>3805</v>
       </c>
       <c r="I29" t="n">
-        <v>365</v>
+        <v>827</v>
       </c>
       <c r="J29" t="n">
-        <v>2100</v>
+        <v>2379</v>
       </c>
       <c r="K29" t="n">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="L29" t="n">
-        <v>337</v>
+        <v>663</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1685,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1692,32 +1696,32 @@
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>16825</v>
+        <v>9595</v>
       </c>
       <c r="F30" t="n">
-        <v>1710</v>
+        <v>842</v>
       </c>
       <c r="G30" t="n">
-        <v>6748</v>
+        <v>2918</v>
       </c>
       <c r="H30" t="n">
-        <v>947</v>
+        <v>2679</v>
       </c>
       <c r="I30" t="n">
-        <v>1641</v>
+        <v>365</v>
       </c>
       <c r="J30" t="n">
-        <v>4793</v>
+        <v>2100</v>
       </c>
       <c r="K30" t="n">
-        <v>708</v>
+        <v>354</v>
       </c>
       <c r="L30" t="n">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1730,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1737,32 +1741,32 @@
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>12712</v>
+        <v>16825</v>
       </c>
       <c r="F31" t="n">
-        <v>1406</v>
+        <v>1710</v>
       </c>
       <c r="G31" t="n">
-        <v>5432</v>
+        <v>6748</v>
       </c>
       <c r="H31" t="n">
-        <v>1012</v>
+        <v>947</v>
       </c>
       <c r="I31" t="n">
-        <v>679</v>
+        <v>1641</v>
       </c>
       <c r="J31" t="n">
-        <v>3303</v>
+        <v>4793</v>
       </c>
       <c r="K31" t="n">
-        <v>544</v>
+        <v>708</v>
       </c>
       <c r="L31" t="n">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1782,30 +1786,32 @@
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>11615</v>
+        <v>12712</v>
       </c>
       <c r="F32" t="n">
-        <v>464</v>
+        <v>1406</v>
       </c>
       <c r="G32" t="n">
-        <v>5493</v>
+        <v>5432</v>
       </c>
       <c r="H32" t="n">
-        <v>1252</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1012</v>
+      </c>
+      <c r="I32" t="n">
+        <v>679</v>
+      </c>
       <c r="J32" t="n">
-        <v>3379</v>
+        <v>3303</v>
       </c>
       <c r="K32" t="n">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="L32" t="n">
-        <v>447</v>
+        <v>336</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1820,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1825,32 +1831,30 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>10877</v>
+        <v>11615</v>
       </c>
       <c r="F33" t="n">
-        <v>586</v>
+        <v>464</v>
       </c>
       <c r="G33" t="n">
-        <v>2717</v>
+        <v>5493</v>
       </c>
       <c r="H33" t="n">
-        <v>1832</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1380</v>
-      </c>
+        <v>1252</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>1979</v>
+        <v>3379</v>
       </c>
       <c r="K33" t="n">
-        <v>666</v>
+        <v>580</v>
       </c>
       <c r="L33" t="n">
-        <v>1717</v>
+        <v>447</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1870,30 +1874,32 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>10578</v>
+        <v>10877</v>
       </c>
       <c r="F34" t="n">
-        <v>702</v>
+        <v>586</v>
       </c>
       <c r="G34" t="n">
-        <v>4249</v>
+        <v>2717</v>
       </c>
       <c r="H34" t="n">
-        <v>1332</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1832</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1380</v>
+      </c>
       <c r="J34" t="n">
-        <v>2835</v>
+        <v>1979</v>
       </c>
       <c r="K34" t="n">
-        <v>783</v>
+        <v>666</v>
       </c>
       <c r="L34" t="n">
-        <v>677</v>
+        <v>1717</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2129,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2134,32 +2140,32 @@
         <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>9083</v>
+        <v>10573</v>
       </c>
       <c r="F40" t="n">
-        <v>577</v>
+        <v>151</v>
       </c>
       <c r="G40" t="n">
-        <v>1403</v>
+        <v>5127</v>
       </c>
       <c r="H40" t="n">
-        <v>2856</v>
+        <v>834</v>
       </c>
       <c r="I40" t="n">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c r="J40" t="n">
-        <v>2608</v>
+        <v>3312</v>
       </c>
       <c r="K40" t="n">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="L40" t="n">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2174,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2179,32 +2185,32 @@
         <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>8217</v>
+        <v>9083</v>
       </c>
       <c r="F41" t="n">
-        <v>645</v>
+        <v>577</v>
       </c>
       <c r="G41" t="n">
-        <v>2267</v>
+        <v>1403</v>
       </c>
       <c r="H41" t="n">
-        <v>1931</v>
+        <v>2856</v>
       </c>
       <c r="I41" t="n">
-        <v>324</v>
+        <v>762</v>
       </c>
       <c r="J41" t="n">
-        <v>2218</v>
+        <v>2608</v>
       </c>
       <c r="K41" t="n">
-        <v>414</v>
+        <v>198</v>
       </c>
       <c r="L41" t="n">
-        <v>418</v>
+        <v>679</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2219,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2224,32 +2230,32 @@
         <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>13879</v>
+        <v>8217</v>
       </c>
       <c r="F42" t="n">
-        <v>1350</v>
+        <v>645</v>
       </c>
       <c r="G42" t="n">
-        <v>4887</v>
+        <v>2267</v>
       </c>
       <c r="H42" t="n">
-        <v>675</v>
+        <v>1931</v>
       </c>
       <c r="I42" t="n">
-        <v>1341</v>
+        <v>324</v>
       </c>
       <c r="J42" t="n">
-        <v>4511</v>
+        <v>2218</v>
       </c>
       <c r="K42" t="n">
-        <v>800</v>
+        <v>414</v>
       </c>
       <c r="L42" t="n">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2269,32 +2275,32 @@
         <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>10571</v>
+        <v>13879</v>
       </c>
       <c r="F43" t="n">
-        <v>622</v>
+        <v>1350</v>
       </c>
       <c r="G43" t="n">
-        <v>4179</v>
+        <v>4887</v>
       </c>
       <c r="H43" t="n">
-        <v>877</v>
+        <v>675</v>
       </c>
       <c r="I43" t="n">
-        <v>373</v>
+        <v>1341</v>
       </c>
       <c r="J43" t="n">
-        <v>3345</v>
+        <v>4511</v>
       </c>
       <c r="K43" t="n">
-        <v>523</v>
+        <v>800</v>
       </c>
       <c r="L43" t="n">
-        <v>652</v>
+        <v>315</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2309,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2314,30 +2320,32 @@
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>9850</v>
+        <v>10571</v>
       </c>
       <c r="F44" t="n">
-        <v>376</v>
+        <v>622</v>
       </c>
       <c r="G44" t="n">
-        <v>3684</v>
+        <v>4179</v>
       </c>
       <c r="H44" t="n">
-        <v>916</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>877</v>
+      </c>
+      <c r="I44" t="n">
+        <v>373</v>
+      </c>
       <c r="J44" t="n">
-        <v>3725</v>
+        <v>3345</v>
       </c>
       <c r="K44" t="n">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="L44" t="n">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2354,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2357,32 +2365,30 @@
         <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>9221</v>
+        <v>9850</v>
       </c>
       <c r="F45" t="n">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="G45" t="n">
-        <v>2076</v>
+        <v>3684</v>
       </c>
       <c r="H45" t="n">
-        <v>1305</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1211</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>2027</v>
+        <v>3725</v>
       </c>
       <c r="K45" t="n">
-        <v>769</v>
+        <v>512</v>
       </c>
       <c r="L45" t="n">
-        <v>1415</v>
+        <v>637</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2402,30 +2408,32 @@
         <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>8840</v>
+        <v>9221</v>
       </c>
       <c r="F46" t="n">
-        <v>501</v>
+        <v>418</v>
       </c>
       <c r="G46" t="n">
-        <v>3099</v>
+        <v>2076</v>
       </c>
       <c r="H46" t="n">
-        <v>932</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1305</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1211</v>
+      </c>
       <c r="J46" t="n">
-        <v>2840</v>
+        <v>2027</v>
       </c>
       <c r="K46" t="n">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L46" t="n">
-        <v>695</v>
+        <v>1415</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2663,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2666,32 +2674,32 @@
         <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>20195</v>
+        <v>23614</v>
       </c>
       <c r="F52" t="n">
-        <v>1499</v>
+        <v>688</v>
       </c>
       <c r="G52" t="n">
-        <v>3000</v>
+        <v>8187</v>
       </c>
       <c r="H52" t="n">
-        <v>6146</v>
+        <v>1287</v>
       </c>
       <c r="I52" t="n">
-        <v>1819</v>
+        <v>3385</v>
       </c>
       <c r="J52" t="n">
-        <v>5703</v>
+        <v>8958</v>
       </c>
       <c r="K52" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L52" t="n">
-        <v>1606</v>
+        <v>691</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2708,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2711,32 +2719,32 @@
         <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>18640</v>
+        <v>20195</v>
       </c>
       <c r="F53" t="n">
-        <v>1544</v>
+        <v>1499</v>
       </c>
       <c r="G53" t="n">
-        <v>4845</v>
+        <v>3000</v>
       </c>
       <c r="H53" t="n">
-        <v>4113</v>
+        <v>6146</v>
       </c>
       <c r="I53" t="n">
-        <v>830</v>
+        <v>1819</v>
       </c>
       <c r="J53" t="n">
-        <v>5498</v>
+        <v>5703</v>
       </c>
       <c r="K53" t="n">
-        <v>913</v>
+        <v>422</v>
       </c>
       <c r="L53" t="n">
-        <v>897</v>
+        <v>1606</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2753,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2756,32 +2764,32 @@
         <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>29237</v>
+        <v>18640</v>
       </c>
       <c r="F54" t="n">
-        <v>3001</v>
+        <v>1544</v>
       </c>
       <c r="G54" t="n">
-        <v>10357</v>
+        <v>4845</v>
       </c>
       <c r="H54" t="n">
-        <v>1403</v>
+        <v>4113</v>
       </c>
       <c r="I54" t="n">
-        <v>3123</v>
+        <v>830</v>
       </c>
       <c r="J54" t="n">
-        <v>9164</v>
+        <v>5498</v>
       </c>
       <c r="K54" t="n">
-        <v>1561</v>
+        <v>913</v>
       </c>
       <c r="L54" t="n">
-        <v>628</v>
+        <v>897</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2798,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2801,32 +2809,32 @@
         <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>23844</v>
+        <v>29237</v>
       </c>
       <c r="F55" t="n">
-        <v>1230</v>
+        <v>3001</v>
       </c>
       <c r="G55" t="n">
-        <v>9986</v>
+        <v>10357</v>
       </c>
       <c r="H55" t="n">
-        <v>1284</v>
+        <v>1403</v>
       </c>
       <c r="I55" t="n">
-        <v>649</v>
+        <v>3123</v>
       </c>
       <c r="J55" t="n">
-        <v>9066</v>
+        <v>9164</v>
       </c>
       <c r="K55" t="n">
-        <v>855</v>
+        <v>1561</v>
       </c>
       <c r="L55" t="n">
-        <v>774</v>
+        <v>628</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2843,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2846,30 +2854,32 @@
         <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>22243</v>
+        <v>23844</v>
       </c>
       <c r="F56" t="n">
-        <v>976</v>
+        <v>1230</v>
       </c>
       <c r="G56" t="n">
-        <v>7550</v>
+        <v>9986</v>
       </c>
       <c r="H56" t="n">
-        <v>1985</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1284</v>
+      </c>
+      <c r="I56" t="n">
+        <v>649</v>
+      </c>
       <c r="J56" t="n">
-        <v>6336</v>
+        <v>9066</v>
       </c>
       <c r="K56" t="n">
-        <v>805</v>
+        <v>855</v>
       </c>
       <c r="L56" t="n">
-        <v>4591</v>
+        <v>774</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2888,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2889,32 +2899,30 @@
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>20500</v>
+        <v>22243</v>
       </c>
       <c r="F57" t="n">
-        <v>1086</v>
+        <v>976</v>
       </c>
       <c r="G57" t="n">
-        <v>4281</v>
+        <v>7550</v>
       </c>
       <c r="H57" t="n">
-        <v>2850</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2875</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>4341</v>
+        <v>6336</v>
       </c>
       <c r="K57" t="n">
-        <v>1663</v>
+        <v>805</v>
       </c>
       <c r="L57" t="n">
-        <v>3404</v>
+        <v>4591</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2931,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2934,30 +2942,32 @@
         <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>19620</v>
+        <v>20500</v>
       </c>
       <c r="F58" t="n">
-        <v>1291</v>
+        <v>1086</v>
       </c>
       <c r="G58" t="n">
-        <v>6491</v>
+        <v>4281</v>
       </c>
       <c r="H58" t="n">
-        <v>2155</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>2850</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2875</v>
+      </c>
       <c r="J58" t="n">
-        <v>6604</v>
+        <v>4341</v>
       </c>
       <c r="K58" t="n">
-        <v>1515</v>
+        <v>1663</v>
       </c>
       <c r="L58" t="n">
-        <v>1564</v>
+        <v>3404</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3197,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3198,32 +3208,30 @@
         <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>14266</v>
-      </c>
-      <c r="F64" t="n">
-        <v>543</v>
-      </c>
+        <v>15488</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>1744</v>
+        <v>5166</v>
       </c>
       <c r="H64" t="n">
-        <v>3683</v>
+        <v>590</v>
       </c>
       <c r="I64" t="n">
-        <v>1228</v>
+        <v>1530</v>
       </c>
       <c r="J64" t="n">
-        <v>5646</v>
+        <v>7269</v>
       </c>
       <c r="K64" t="n">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="L64" t="n">
-        <v>1124</v>
+        <v>577</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3240,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3243,32 +3251,32 @@
         <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>12957</v>
+        <v>14266</v>
       </c>
       <c r="F65" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G65" t="n">
-        <v>2809</v>
+        <v>1744</v>
       </c>
       <c r="H65" t="n">
-        <v>2393</v>
+        <v>3683</v>
       </c>
       <c r="I65" t="n">
-        <v>571</v>
+        <v>1228</v>
       </c>
       <c r="J65" t="n">
-        <v>5256</v>
+        <v>5646</v>
       </c>
       <c r="K65" t="n">
-        <v>641</v>
+        <v>298</v>
       </c>
       <c r="L65" t="n">
-        <v>746</v>
+        <v>1124</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3285,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3288,32 +3296,32 @@
         <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>20955</v>
+        <v>12957</v>
       </c>
       <c r="F66" t="n">
-        <v>1249</v>
+        <v>541</v>
       </c>
       <c r="G66" t="n">
-        <v>5831</v>
+        <v>2809</v>
       </c>
       <c r="H66" t="n">
+        <v>2393</v>
+      </c>
+      <c r="I66" t="n">
+        <v>571</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5256</v>
+      </c>
+      <c r="K66" t="n">
+        <v>641</v>
+      </c>
+      <c r="L66" t="n">
         <v>746</v>
       </c>
-      <c r="I66" t="n">
-        <v>2420</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9358</v>
-      </c>
-      <c r="K66" t="n">
-        <v>985</v>
-      </c>
-      <c r="L66" t="n">
-        <v>366</v>
-      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3330,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3333,32 +3341,32 @@
         <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>16341</v>
+        <v>20955</v>
       </c>
       <c r="F67" t="n">
-        <v>432</v>
+        <v>1249</v>
       </c>
       <c r="G67" t="n">
-        <v>5080</v>
+        <v>5831</v>
       </c>
       <c r="H67" t="n">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="I67" t="n">
-        <v>555</v>
+        <v>2420</v>
       </c>
       <c r="J67" t="n">
-        <v>8380</v>
+        <v>9358</v>
       </c>
       <c r="K67" t="n">
-        <v>580</v>
+        <v>985</v>
       </c>
       <c r="L67" t="n">
-        <v>590</v>
+        <v>366</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3375,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3378,30 +3386,32 @@
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>14759</v>
+        <v>16341</v>
       </c>
       <c r="F68" t="n">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="G68" t="n">
-        <v>3855</v>
+        <v>5080</v>
       </c>
       <c r="H68" t="n">
-        <v>982</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>724</v>
+      </c>
+      <c r="I68" t="n">
+        <v>555</v>
+      </c>
       <c r="J68" t="n">
-        <v>7766</v>
+        <v>8380</v>
       </c>
       <c r="K68" t="n">
-        <v>708</v>
+        <v>580</v>
       </c>
       <c r="L68" t="n">
-        <v>1099</v>
+        <v>590</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3420,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3421,32 +3431,30 @@
         <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>14242</v>
+        <v>14759</v>
       </c>
       <c r="F69" t="n">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="G69" t="n">
-        <v>2498</v>
+        <v>3855</v>
       </c>
       <c r="H69" t="n">
-        <v>1339</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2427</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>4328</v>
+        <v>7766</v>
       </c>
       <c r="K69" t="n">
-        <v>1053</v>
+        <v>708</v>
       </c>
       <c r="L69" t="n">
-        <v>2217</v>
+        <v>1099</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3463,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3466,30 +3474,32 @@
         <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>13540</v>
+        <v>14242</v>
       </c>
       <c r="F70" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G70" t="n">
-        <v>3791</v>
+        <v>2498</v>
       </c>
       <c r="H70" t="n">
-        <v>963</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1339</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2427</v>
+      </c>
       <c r="J70" t="n">
-        <v>6328</v>
+        <v>4328</v>
       </c>
       <c r="K70" t="n">
-        <v>999</v>
+        <v>1053</v>
       </c>
       <c r="L70" t="n">
-        <v>1080</v>
+        <v>2217</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3729,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3730,32 +3740,30 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>16790</v>
-      </c>
-      <c r="F76" t="n">
-        <v>357</v>
-      </c>
+        <v>17967</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>1372</v>
+        <v>4080</v>
       </c>
       <c r="H76" t="n">
-        <v>2832</v>
+        <v>535</v>
       </c>
       <c r="I76" t="n">
-        <v>1468</v>
+        <v>2819</v>
       </c>
       <c r="J76" t="n">
-        <v>8771</v>
+        <v>8894</v>
       </c>
       <c r="K76" t="n">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="L76" t="n">
-        <v>1528</v>
+        <v>1102</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3772,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3775,32 +3783,32 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>15114</v>
+        <v>16790</v>
       </c>
       <c r="F77" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G77" t="n">
-        <v>2230</v>
+        <v>1372</v>
       </c>
       <c r="H77" t="n">
-        <v>1864</v>
+        <v>2832</v>
       </c>
       <c r="I77" t="n">
-        <v>572</v>
+        <v>1468</v>
       </c>
       <c r="J77" t="n">
-        <v>8130</v>
+        <v>8771</v>
       </c>
       <c r="K77" t="n">
-        <v>925</v>
+        <v>462</v>
       </c>
       <c r="L77" t="n">
-        <v>1040</v>
+        <v>1528</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3817,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3820,32 +3828,32 @@
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>25170</v>
+        <v>15114</v>
       </c>
       <c r="F78" t="n">
-        <v>875</v>
+        <v>353</v>
       </c>
       <c r="G78" t="n">
-        <v>4623</v>
+        <v>2230</v>
       </c>
       <c r="H78" t="n">
-        <v>579</v>
+        <v>1864</v>
       </c>
       <c r="I78" t="n">
-        <v>2729</v>
+        <v>572</v>
       </c>
       <c r="J78" t="n">
-        <v>14644</v>
+        <v>8130</v>
       </c>
       <c r="K78" t="n">
-        <v>1338</v>
+        <v>925</v>
       </c>
       <c r="L78" t="n">
-        <v>382</v>
+        <v>1040</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3862,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3865,32 +3873,32 @@
         <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>19077</v>
+        <v>25170</v>
       </c>
       <c r="F79" t="n">
-        <v>235</v>
+        <v>875</v>
       </c>
       <c r="G79" t="n">
-        <v>3992</v>
+        <v>4623</v>
       </c>
       <c r="H79" t="n">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="I79" t="n">
-        <v>565</v>
+        <v>2729</v>
       </c>
       <c r="J79" t="n">
-        <v>12334</v>
+        <v>14644</v>
       </c>
       <c r="K79" t="n">
-        <v>930</v>
+        <v>1338</v>
       </c>
       <c r="L79" t="n">
-        <v>636</v>
+        <v>382</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3907,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3910,30 +3918,32 @@
         <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>17910</v>
+        <v>19077</v>
       </c>
       <c r="F80" t="n">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G80" t="n">
-        <v>3031</v>
+        <v>3992</v>
       </c>
       <c r="H80" t="n">
-        <v>546</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>385</v>
+      </c>
+      <c r="I80" t="n">
+        <v>565</v>
+      </c>
       <c r="J80" t="n">
-        <v>7345</v>
+        <v>12334</v>
       </c>
       <c r="K80" t="n">
-        <v>1066</v>
+        <v>930</v>
       </c>
       <c r="L80" t="n">
-        <v>5724</v>
+        <v>636</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -3942,7 +3952,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3953,32 +3963,30 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>17187</v>
+        <v>17910</v>
       </c>
       <c r="F81" t="n">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G81" t="n">
-        <v>1838</v>
+        <v>3031</v>
       </c>
       <c r="H81" t="n">
-        <v>938</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2784</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6793</v>
+        <v>7345</v>
       </c>
       <c r="K81" t="n">
-        <v>1722</v>
+        <v>1066</v>
       </c>
       <c r="L81" t="n">
-        <v>2896</v>
+        <v>5724</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3995,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3998,30 +4006,32 @@
         <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>16549</v>
+        <v>17187</v>
       </c>
       <c r="F82" t="n">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="G82" t="n">
-        <v>2769</v>
+        <v>1838</v>
       </c>
       <c r="H82" t="n">
-        <v>784</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>938</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2784</v>
+      </c>
       <c r="J82" t="n">
-        <v>9699</v>
+        <v>6793</v>
       </c>
       <c r="K82" t="n">
-        <v>1654</v>
+        <v>1722</v>
       </c>
       <c r="L82" t="n">
-        <v>1380</v>
+        <v>2896</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4261,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4262,32 +4272,30 @@
         <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>11202</v>
-      </c>
-      <c r="F88" t="n">
-        <v>220</v>
-      </c>
+        <v>12325</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>815</v>
+        <v>2302</v>
       </c>
       <c r="H88" t="n">
-        <v>1881</v>
+        <v>318</v>
       </c>
       <c r="I88" t="n">
-        <v>943</v>
+        <v>808</v>
       </c>
       <c r="J88" t="n">
-        <v>6035</v>
+        <v>4119</v>
       </c>
       <c r="K88" t="n">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="L88" t="n">
-        <v>1031</v>
+        <v>4485</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4304,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4307,32 +4315,32 @@
         <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>10147</v>
+        <v>11202</v>
       </c>
       <c r="F89" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G89" t="n">
-        <v>1351</v>
+        <v>815</v>
       </c>
       <c r="H89" t="n">
-        <v>1304</v>
+        <v>1881</v>
       </c>
       <c r="I89" t="n">
-        <v>413</v>
+        <v>943</v>
       </c>
       <c r="J89" t="n">
-        <v>5436</v>
+        <v>6035</v>
       </c>
       <c r="K89" t="n">
-        <v>676</v>
+        <v>277</v>
       </c>
       <c r="L89" t="n">
-        <v>741</v>
+        <v>1031</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4349,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4352,32 +4360,32 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>18830</v>
+        <v>10147</v>
       </c>
       <c r="F90" t="n">
-        <v>772</v>
+        <v>226</v>
       </c>
       <c r="G90" t="n">
-        <v>3307</v>
+        <v>1351</v>
       </c>
       <c r="H90" t="n">
-        <v>449</v>
+        <v>1304</v>
       </c>
       <c r="I90" t="n">
-        <v>1905</v>
+        <v>413</v>
       </c>
       <c r="J90" t="n">
-        <v>10975</v>
+        <v>5436</v>
       </c>
       <c r="K90" t="n">
-        <v>1106</v>
+        <v>676</v>
       </c>
       <c r="L90" t="n">
-        <v>316</v>
+        <v>741</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4394,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4397,32 +4405,32 @@
         <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>13548</v>
+        <v>18830</v>
       </c>
       <c r="F91" t="n">
-        <v>167</v>
+        <v>772</v>
       </c>
       <c r="G91" t="n">
-        <v>2744</v>
+        <v>3307</v>
       </c>
       <c r="H91" t="n">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="I91" t="n">
-        <v>393</v>
+        <v>1905</v>
       </c>
       <c r="J91" t="n">
-        <v>7678</v>
+        <v>10975</v>
       </c>
       <c r="K91" t="n">
-        <v>722</v>
+        <v>1106</v>
       </c>
       <c r="L91" t="n">
-        <v>1465</v>
+        <v>316</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4439,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4442,30 +4450,32 @@
         <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>12622</v>
+        <v>13548</v>
       </c>
       <c r="F92" t="n">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
-        <v>1944</v>
+        <v>2744</v>
       </c>
       <c r="H92" t="n">
-        <v>442</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>379</v>
+      </c>
+      <c r="I92" t="n">
+        <v>393</v>
+      </c>
       <c r="J92" t="n">
-        <v>5884</v>
+        <v>7678</v>
       </c>
       <c r="K92" t="n">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="L92" t="n">
-        <v>3572</v>
+        <v>1465</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4484,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4485,32 +4495,30 @@
         <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>11741</v>
+        <v>12622</v>
       </c>
       <c r="F93" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
-        <v>1208</v>
+        <v>1944</v>
       </c>
       <c r="H93" t="n">
-        <v>616</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1885</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>4671</v>
+        <v>5884</v>
       </c>
       <c r="K93" t="n">
-        <v>1168</v>
+        <v>602</v>
       </c>
       <c r="L93" t="n">
-        <v>2039</v>
+        <v>3572</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4527,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4530,30 +4538,32 @@
         <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>11568</v>
+        <v>11741</v>
       </c>
       <c r="F94" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G94" t="n">
-        <v>1961</v>
+        <v>1208</v>
       </c>
       <c r="H94" t="n">
-        <v>589</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>616</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1885</v>
+      </c>
       <c r="J94" t="n">
-        <v>6611</v>
+        <v>4671</v>
       </c>
       <c r="K94" t="n">
-        <v>1215</v>
+        <v>1168</v>
       </c>
       <c r="L94" t="n">
-        <v>1016</v>
+        <v>2039</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4793,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -4794,32 +4804,32 @@
         <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>17911</v>
+        <v>20643</v>
       </c>
       <c r="F100" t="n">
-        <v>1078</v>
+        <v>602</v>
       </c>
       <c r="G100" t="n">
-        <v>2542</v>
+        <v>10163</v>
       </c>
       <c r="H100" t="n">
-        <v>5809</v>
+        <v>1299</v>
       </c>
       <c r="I100" t="n">
-        <v>1529</v>
+        <v>1659</v>
       </c>
       <c r="J100" t="n">
-        <v>5180</v>
+        <v>6353</v>
       </c>
       <c r="K100" t="n">
-        <v>435</v>
+        <v>567</v>
       </c>
       <c r="L100" t="n">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4838,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -4839,32 +4849,32 @@
         <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>16487</v>
+        <v>17911</v>
       </c>
       <c r="F101" t="n">
-        <v>1135</v>
+        <v>1078</v>
       </c>
       <c r="G101" t="n">
-        <v>4274</v>
+        <v>2542</v>
       </c>
       <c r="H101" t="n">
-        <v>4002</v>
+        <v>5809</v>
       </c>
       <c r="I101" t="n">
-        <v>687</v>
+        <v>1529</v>
       </c>
       <c r="J101" t="n">
-        <v>4752</v>
+        <v>5180</v>
       </c>
       <c r="K101" t="n">
-        <v>834</v>
+        <v>435</v>
       </c>
       <c r="L101" t="n">
-        <v>803</v>
+        <v>1338</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4883,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -4884,32 +4894,32 @@
         <v>9</v>
       </c>
       <c r="E102" t="n">
-        <v>28583</v>
+        <v>16487</v>
       </c>
       <c r="F102" t="n">
-        <v>2667</v>
+        <v>1135</v>
       </c>
       <c r="G102" t="n">
-        <v>10048</v>
+        <v>4274</v>
       </c>
       <c r="H102" t="n">
-        <v>1347</v>
+        <v>4002</v>
       </c>
       <c r="I102" t="n">
-        <v>3101</v>
+        <v>687</v>
       </c>
       <c r="J102" t="n">
-        <v>9496</v>
+        <v>4752</v>
       </c>
       <c r="K102" t="n">
-        <v>1396</v>
+        <v>834</v>
       </c>
       <c r="L102" t="n">
-        <v>528</v>
+        <v>803</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4928,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -4929,32 +4939,32 @@
         <v>9</v>
       </c>
       <c r="E103" t="n">
-        <v>21936</v>
+        <v>28583</v>
       </c>
       <c r="F103" t="n">
-        <v>1027</v>
+        <v>2667</v>
       </c>
       <c r="G103" t="n">
-        <v>9225</v>
+        <v>10048</v>
       </c>
       <c r="H103" t="n">
-        <v>1408</v>
+        <v>1347</v>
       </c>
       <c r="I103" t="n">
-        <v>787</v>
+        <v>3101</v>
       </c>
       <c r="J103" t="n">
-        <v>7410</v>
+        <v>9496</v>
       </c>
       <c r="K103" t="n">
-        <v>940</v>
+        <v>1396</v>
       </c>
       <c r="L103" t="n">
-        <v>1139</v>
+        <v>528</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4973,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -4974,30 +4984,32 @@
         <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>20751</v>
+        <v>21936</v>
       </c>
       <c r="F104" t="n">
-        <v>772</v>
+        <v>1027</v>
       </c>
       <c r="G104" t="n">
-        <v>8125</v>
+        <v>9225</v>
       </c>
       <c r="H104" t="n">
-        <v>1663</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1408</v>
+      </c>
+      <c r="I104" t="n">
+        <v>787</v>
+      </c>
       <c r="J104" t="n">
-        <v>8181</v>
+        <v>7410</v>
       </c>
       <c r="K104" t="n">
-        <v>1010</v>
+        <v>940</v>
       </c>
       <c r="L104" t="n">
-        <v>1000</v>
+        <v>1139</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5018,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5017,32 +5029,30 @@
         <v>9</v>
       </c>
       <c r="E105" t="n">
-        <v>19454</v>
+        <v>20751</v>
       </c>
       <c r="F105" t="n">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="G105" t="n">
-        <v>3938</v>
+        <v>8125</v>
       </c>
       <c r="H105" t="n">
-        <v>2813</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2858</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>4388</v>
+        <v>8181</v>
       </c>
       <c r="K105" t="n">
-        <v>1474</v>
+        <v>1010</v>
       </c>
       <c r="L105" t="n">
-        <v>3216</v>
+        <v>1000</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5061,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5062,30 +5072,32 @@
         <v>9</v>
       </c>
       <c r="E106" t="n">
-        <v>18823</v>
+        <v>19454</v>
       </c>
       <c r="F106" t="n">
-        <v>951</v>
+        <v>767</v>
       </c>
       <c r="G106" t="n">
-        <v>6361</v>
+        <v>3938</v>
       </c>
       <c r="H106" t="n">
-        <v>2187</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>2813</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2858</v>
+      </c>
       <c r="J106" t="n">
-        <v>6594</v>
+        <v>4388</v>
       </c>
       <c r="K106" t="n">
-        <v>1385</v>
+        <v>1474</v>
       </c>
       <c r="L106" t="n">
-        <v>1345</v>
+        <v>3216</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5327,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5326,32 +5338,32 @@
         <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>22911</v>
+        <v>28359</v>
       </c>
       <c r="F112" t="n">
-        <v>2518</v>
+        <v>2158</v>
       </c>
       <c r="G112" t="n">
-        <v>3921</v>
+        <v>13766</v>
       </c>
       <c r="H112" t="n">
-        <v>8316</v>
+        <v>2564</v>
       </c>
       <c r="I112" t="n">
-        <v>1704</v>
+        <v>2348</v>
       </c>
       <c r="J112" t="n">
-        <v>4325</v>
+        <v>4513</v>
       </c>
       <c r="K112" t="n">
-        <v>469</v>
+        <v>837</v>
       </c>
       <c r="L112" t="n">
-        <v>1658</v>
+        <v>2173</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5372,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5371,32 +5383,32 @@
         <v>10</v>
       </c>
       <c r="E113" t="n">
-        <v>21841</v>
+        <v>22911</v>
       </c>
       <c r="F113" t="n">
-        <v>2628</v>
+        <v>2518</v>
       </c>
       <c r="G113" t="n">
-        <v>6495</v>
+        <v>3921</v>
       </c>
       <c r="H113" t="n">
-        <v>6188</v>
+        <v>8316</v>
       </c>
       <c r="I113" t="n">
-        <v>791</v>
+        <v>1704</v>
       </c>
       <c r="J113" t="n">
-        <v>3747</v>
+        <v>4325</v>
       </c>
       <c r="K113" t="n">
-        <v>1074</v>
+        <v>469</v>
       </c>
       <c r="L113" t="n">
-        <v>918</v>
+        <v>1658</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5417,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5416,32 +5428,32 @@
         <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>39632</v>
+        <v>21841</v>
       </c>
       <c r="F114" t="n">
-        <v>5901</v>
+        <v>2628</v>
       </c>
       <c r="G114" t="n">
-        <v>16892</v>
+        <v>6495</v>
       </c>
       <c r="H114" t="n">
-        <v>2324</v>
+        <v>6188</v>
       </c>
       <c r="I114" t="n">
-        <v>3353</v>
+        <v>791</v>
       </c>
       <c r="J114" t="n">
-        <v>8234</v>
+        <v>3747</v>
       </c>
       <c r="K114" t="n">
-        <v>2099</v>
+        <v>1074</v>
       </c>
       <c r="L114" t="n">
-        <v>829</v>
+        <v>918</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5462,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5461,32 +5473,32 @@
         <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>29565</v>
+        <v>39632</v>
       </c>
       <c r="F115" t="n">
-        <v>4093</v>
+        <v>5901</v>
       </c>
       <c r="G115" t="n">
-        <v>13001</v>
+        <v>16892</v>
       </c>
       <c r="H115" t="n">
-        <v>2910</v>
+        <v>2324</v>
       </c>
       <c r="I115" t="n">
-        <v>1377</v>
+        <v>3353</v>
       </c>
       <c r="J115" t="n">
-        <v>5704</v>
+        <v>8234</v>
       </c>
       <c r="K115" t="n">
-        <v>1485</v>
+        <v>2099</v>
       </c>
       <c r="L115" t="n">
-        <v>995</v>
+        <v>829</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5507,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5506,30 +5518,32 @@
         <v>10</v>
       </c>
       <c r="E116" t="n">
-        <v>26993</v>
+        <v>29565</v>
       </c>
       <c r="F116" t="n">
-        <v>1730</v>
+        <v>4093</v>
       </c>
       <c r="G116" t="n">
-        <v>11973</v>
+        <v>13001</v>
       </c>
       <c r="H116" t="n">
-        <v>3102</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>2910</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1377</v>
+      </c>
       <c r="J116" t="n">
-        <v>5798</v>
+        <v>5704</v>
       </c>
       <c r="K116" t="n">
-        <v>1460</v>
+        <v>1485</v>
       </c>
       <c r="L116" t="n">
-        <v>2930</v>
+        <v>995</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5552,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5549,32 +5563,30 @@
         <v>10</v>
       </c>
       <c r="E117" t="n">
-        <v>25376</v>
+        <v>26993</v>
       </c>
       <c r="F117" t="n">
-        <v>2098</v>
+        <v>1730</v>
       </c>
       <c r="G117" t="n">
-        <v>5889</v>
+        <v>11973</v>
       </c>
       <c r="H117" t="n">
-        <v>5343</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2776</v>
-      </c>
+        <v>3102</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3244</v>
+        <v>5798</v>
       </c>
       <c r="K117" t="n">
-        <v>1680</v>
+        <v>1460</v>
       </c>
       <c r="L117" t="n">
-        <v>4346</v>
+        <v>2930</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5595,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -5594,30 +5606,32 @@
         <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>24800</v>
+        <v>25376</v>
       </c>
       <c r="F118" t="n">
-        <v>2513</v>
+        <v>2098</v>
       </c>
       <c r="G118" t="n">
-        <v>9789</v>
+        <v>5889</v>
       </c>
       <c r="H118" t="n">
-        <v>3946</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>5343</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2776</v>
+      </c>
       <c r="J118" t="n">
-        <v>4921</v>
+        <v>3244</v>
       </c>
       <c r="K118" t="n">
-        <v>1811</v>
+        <v>1680</v>
       </c>
       <c r="L118" t="n">
-        <v>1820</v>
+        <v>4346</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5861,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -5858,32 +5872,32 @@
         <v>11</v>
       </c>
       <c r="E124" t="n">
-        <v>40671</v>
+        <v>47031</v>
       </c>
       <c r="F124" t="n">
-        <v>4283</v>
+        <v>2672</v>
       </c>
       <c r="G124" t="n">
-        <v>7295</v>
+        <v>25894</v>
       </c>
       <c r="H124" t="n">
-        <v>14165</v>
+        <v>3726</v>
       </c>
       <c r="I124" t="n">
-        <v>3097</v>
+        <v>4067</v>
       </c>
       <c r="J124" t="n">
-        <v>8049</v>
+        <v>9315</v>
       </c>
       <c r="K124" t="n">
-        <v>888</v>
+        <v>1357</v>
       </c>
       <c r="L124" t="n">
-        <v>2894</v>
+        <v>0</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5906,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -5903,32 +5917,32 @@
         <v>11</v>
       </c>
       <c r="E125" t="n">
-        <v>38646</v>
+        <v>40671</v>
       </c>
       <c r="F125" t="n">
-        <v>4234</v>
+        <v>4283</v>
       </c>
       <c r="G125" t="n">
-        <v>12195</v>
+        <v>7295</v>
       </c>
       <c r="H125" t="n">
-        <v>10142</v>
+        <v>14165</v>
       </c>
       <c r="I125" t="n">
-        <v>1476</v>
+        <v>3097</v>
       </c>
       <c r="J125" t="n">
-        <v>7160</v>
+        <v>8049</v>
       </c>
       <c r="K125" t="n">
-        <v>1865</v>
+        <v>888</v>
       </c>
       <c r="L125" t="n">
-        <v>1574</v>
+        <v>2894</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5951,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -5948,32 +5962,32 @@
         <v>11</v>
       </c>
       <c r="E126" t="n">
-        <v>68819</v>
+        <v>38646</v>
       </c>
       <c r="F126" t="n">
-        <v>9703</v>
+        <v>4234</v>
       </c>
       <c r="G126" t="n">
-        <v>29024</v>
+        <v>12195</v>
       </c>
       <c r="H126" t="n">
-        <v>3746</v>
+        <v>10142</v>
       </c>
       <c r="I126" t="n">
-        <v>6174</v>
+        <v>1476</v>
       </c>
       <c r="J126" t="n">
-        <v>15353</v>
+        <v>7160</v>
       </c>
       <c r="K126" t="n">
-        <v>3379</v>
+        <v>1865</v>
       </c>
       <c r="L126" t="n">
-        <v>1440</v>
+        <v>1574</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -5982,7 +5996,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -5993,32 +6007,32 @@
         <v>11</v>
       </c>
       <c r="E127" t="n">
-        <v>51486</v>
+        <v>68819</v>
       </c>
       <c r="F127" t="n">
-        <v>5684</v>
+        <v>9703</v>
       </c>
       <c r="G127" t="n">
-        <v>11880</v>
+        <v>29024</v>
       </c>
       <c r="H127" t="n">
-        <v>15989</v>
+        <v>3746</v>
       </c>
       <c r="I127" t="n">
-        <v>1646</v>
+        <v>6174</v>
       </c>
       <c r="J127" t="n">
-        <v>10783</v>
+        <v>15353</v>
       </c>
       <c r="K127" t="n">
-        <v>2319</v>
+        <v>3379</v>
       </c>
       <c r="L127" t="n">
-        <v>3185</v>
+        <v>1440</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6041,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6038,30 +6052,32 @@
         <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>45861</v>
+        <v>51486</v>
       </c>
       <c r="F128" t="n">
-        <v>2879</v>
+        <v>5684</v>
       </c>
       <c r="G128" t="n">
-        <v>20524</v>
+        <v>11880</v>
       </c>
       <c r="H128" t="n">
-        <v>5301</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>15989</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1646</v>
+      </c>
       <c r="J128" t="n">
-        <v>12304</v>
+        <v>10783</v>
       </c>
       <c r="K128" t="n">
-        <v>2512</v>
+        <v>2319</v>
       </c>
       <c r="L128" t="n">
-        <v>2341</v>
+        <v>3185</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6086,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6081,32 +6097,30 @@
         <v>11</v>
       </c>
       <c r="E129" t="n">
-        <v>42936</v>
+        <v>45861</v>
       </c>
       <c r="F129" t="n">
-        <v>3193</v>
+        <v>2879</v>
       </c>
       <c r="G129" t="n">
-        <v>10260</v>
+        <v>20524</v>
       </c>
       <c r="H129" t="n">
-        <v>8033</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4701</v>
-      </c>
+        <v>5301</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>6442</v>
+        <v>12304</v>
       </c>
       <c r="K129" t="n">
-        <v>2978</v>
+        <v>2512</v>
       </c>
       <c r="L129" t="n">
-        <v>7329</v>
+        <v>2341</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6129,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6126,30 +6140,32 @@
         <v>11</v>
       </c>
       <c r="E130" t="n">
-        <v>42247</v>
+        <v>42936</v>
       </c>
       <c r="F130" t="n">
-        <v>3843</v>
+        <v>3193</v>
       </c>
       <c r="G130" t="n">
-        <v>16918</v>
+        <v>10260</v>
       </c>
       <c r="H130" t="n">
-        <v>6214</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>8033</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4701</v>
+      </c>
       <c r="J130" t="n">
-        <v>8984</v>
+        <v>6442</v>
       </c>
       <c r="K130" t="n">
-        <v>3165</v>
+        <v>2978</v>
       </c>
       <c r="L130" t="n">
-        <v>3123</v>
+        <v>7329</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6395,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6390,32 +6406,32 @@
         <v>12</v>
       </c>
       <c r="E136" t="n">
-        <v>43107</v>
+        <v>53146</v>
       </c>
       <c r="F136" t="n">
-        <v>4035</v>
+        <v>2324</v>
       </c>
       <c r="G136" t="n">
-        <v>6949</v>
+        <v>24486</v>
       </c>
       <c r="H136" t="n">
-        <v>12083</v>
+        <v>3125</v>
       </c>
       <c r="I136" t="n">
-        <v>3882</v>
+        <v>5287</v>
       </c>
       <c r="J136" t="n">
-        <v>11303</v>
+        <v>12922</v>
       </c>
       <c r="K136" t="n">
-        <v>1210</v>
+        <v>1550</v>
       </c>
       <c r="L136" t="n">
-        <v>3645</v>
+        <v>3452</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6440,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6435,32 +6451,32 @@
         <v>12</v>
       </c>
       <c r="E137" t="n">
-        <v>41118</v>
+        <v>43107</v>
       </c>
       <c r="F137" t="n">
-        <v>3844</v>
+        <v>4035</v>
       </c>
       <c r="G137" t="n">
-        <v>11887</v>
+        <v>6949</v>
       </c>
       <c r="H137" t="n">
-        <v>8690</v>
+        <v>12083</v>
       </c>
       <c r="I137" t="n">
-        <v>1784</v>
+        <v>3882</v>
       </c>
       <c r="J137" t="n">
-        <v>10076</v>
+        <v>11303</v>
       </c>
       <c r="K137" t="n">
-        <v>2659</v>
+        <v>1210</v>
       </c>
       <c r="L137" t="n">
-        <v>2178</v>
+        <v>3645</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6485,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6480,32 +6496,32 @@
         <v>12</v>
       </c>
       <c r="E138" t="n">
-        <v>70113</v>
+        <v>41118</v>
       </c>
       <c r="F138" t="n">
-        <v>8166</v>
+        <v>3844</v>
       </c>
       <c r="G138" t="n">
-        <v>25803</v>
+        <v>11887</v>
       </c>
       <c r="H138" t="n">
-        <v>3056</v>
+        <v>8690</v>
       </c>
       <c r="I138" t="n">
-        <v>7172</v>
+        <v>1784</v>
       </c>
       <c r="J138" t="n">
-        <v>19374</v>
+        <v>10076</v>
       </c>
       <c r="K138" t="n">
-        <v>4882</v>
+        <v>2659</v>
       </c>
       <c r="L138" t="n">
-        <v>1660</v>
+        <v>2178</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6530,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -6525,32 +6541,32 @@
         <v>12</v>
       </c>
       <c r="E139" t="n">
-        <v>53697</v>
+        <v>70113</v>
       </c>
       <c r="F139" t="n">
-        <v>4030</v>
+        <v>8166</v>
       </c>
       <c r="G139" t="n">
-        <v>23036</v>
+        <v>25803</v>
       </c>
       <c r="H139" t="n">
-        <v>3499</v>
+        <v>3056</v>
       </c>
       <c r="I139" t="n">
-        <v>1780</v>
+        <v>7172</v>
       </c>
       <c r="J139" t="n">
-        <v>13879</v>
+        <v>19374</v>
       </c>
       <c r="K139" t="n">
-        <v>3180</v>
+        <v>4882</v>
       </c>
       <c r="L139" t="n">
-        <v>4293</v>
+        <v>1660</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6575,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -6570,30 +6586,32 @@
         <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>49695</v>
+        <v>53697</v>
       </c>
       <c r="F140" t="n">
-        <v>2678</v>
+        <v>4030</v>
       </c>
       <c r="G140" t="n">
-        <v>18585</v>
+        <v>23036</v>
       </c>
       <c r="H140" t="n">
-        <v>5001</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>3499</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1780</v>
+      </c>
       <c r="J140" t="n">
-        <v>16569</v>
+        <v>13879</v>
       </c>
       <c r="K140" t="n">
-        <v>3362</v>
+        <v>3180</v>
       </c>
       <c r="L140" t="n">
-        <v>3500</v>
+        <v>4293</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6620,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -6613,32 +6631,30 @@
         <v>12</v>
       </c>
       <c r="E141" t="n">
-        <v>45042</v>
+        <v>49695</v>
       </c>
       <c r="F141" t="n">
-        <v>2911</v>
+        <v>2678</v>
       </c>
       <c r="G141" t="n">
-        <v>9418</v>
+        <v>18585</v>
       </c>
       <c r="H141" t="n">
-        <v>6369</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5688</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>8619</v>
+        <v>16569</v>
       </c>
       <c r="K141" t="n">
-        <v>4471</v>
+        <v>3362</v>
       </c>
       <c r="L141" t="n">
-        <v>7566</v>
+        <v>3500</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6663,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -6658,30 +6674,32 @@
         <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>44269</v>
+        <v>45042</v>
       </c>
       <c r="F142" t="n">
-        <v>3142</v>
+        <v>2911</v>
       </c>
       <c r="G142" t="n">
-        <v>15069</v>
+        <v>9418</v>
       </c>
       <c r="H142" t="n">
-        <v>5077</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>6369</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5688</v>
+      </c>
       <c r="J142" t="n">
-        <v>12624</v>
+        <v>8619</v>
       </c>
       <c r="K142" t="n">
-        <v>4564</v>
+        <v>4471</v>
       </c>
       <c r="L142" t="n">
-        <v>3793</v>
+        <v>7566</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6929,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -6922,32 +6940,32 @@
         <v>13</v>
       </c>
       <c r="E148" t="n">
-        <v>50233</v>
+        <v>58837</v>
       </c>
       <c r="F148" t="n">
-        <v>5790</v>
+        <v>4608</v>
       </c>
       <c r="G148" t="n">
-        <v>9408</v>
+        <v>29324</v>
       </c>
       <c r="H148" t="n">
-        <v>14557</v>
+        <v>3808</v>
       </c>
       <c r="I148" t="n">
-        <v>4468</v>
+        <v>5320</v>
       </c>
       <c r="J148" t="n">
-        <v>10271</v>
+        <v>12559</v>
       </c>
       <c r="K148" t="n">
-        <v>1413</v>
+        <v>1989</v>
       </c>
       <c r="L148" t="n">
-        <v>4326</v>
+        <v>1229</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6974,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -6967,32 +6985,32 @@
         <v>13</v>
       </c>
       <c r="E149" t="n">
-        <v>48936</v>
+        <v>50233</v>
       </c>
       <c r="F149" t="n">
-        <v>5644</v>
+        <v>5790</v>
       </c>
       <c r="G149" t="n">
-        <v>16172</v>
+        <v>9408</v>
       </c>
       <c r="H149" t="n">
-        <v>10187</v>
+        <v>14557</v>
       </c>
       <c r="I149" t="n">
-        <v>2124</v>
+        <v>4468</v>
       </c>
       <c r="J149" t="n">
-        <v>9312</v>
+        <v>10271</v>
       </c>
       <c r="K149" t="n">
-        <v>3079</v>
+        <v>1413</v>
       </c>
       <c r="L149" t="n">
-        <v>2418</v>
+        <v>4326</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7019,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7012,32 +7030,32 @@
         <v>13</v>
       </c>
       <c r="E150" t="n">
-        <v>83965</v>
+        <v>48936</v>
       </c>
       <c r="F150" t="n">
-        <v>11383</v>
+        <v>5644</v>
       </c>
       <c r="G150" t="n">
-        <v>33826</v>
+        <v>16172</v>
       </c>
       <c r="H150" t="n">
-        <v>3620</v>
+        <v>10187</v>
       </c>
       <c r="I150" t="n">
-        <v>7873</v>
+        <v>2124</v>
       </c>
       <c r="J150" t="n">
-        <v>18784</v>
+        <v>9312</v>
       </c>
       <c r="K150" t="n">
-        <v>6237</v>
+        <v>3079</v>
       </c>
       <c r="L150" t="n">
-        <v>2242</v>
+        <v>2418</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -7046,7 +7064,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -7057,32 +7075,32 @@
         <v>13</v>
       </c>
       <c r="E151" t="n">
-        <v>62581</v>
+        <v>83965</v>
       </c>
       <c r="F151" t="n">
-        <v>6910</v>
+        <v>11383</v>
       </c>
       <c r="G151" t="n">
-        <v>18372</v>
+        <v>33826</v>
       </c>
       <c r="H151" t="n">
-        <v>13526</v>
+        <v>3620</v>
       </c>
       <c r="I151" t="n">
-        <v>2259</v>
+        <v>7873</v>
       </c>
       <c r="J151" t="n">
-        <v>13828</v>
+        <v>18784</v>
       </c>
       <c r="K151" t="n">
-        <v>4314</v>
+        <v>6237</v>
       </c>
       <c r="L151" t="n">
-        <v>3372</v>
+        <v>2242</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7109,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7102,30 +7120,32 @@
         <v>13</v>
       </c>
       <c r="E152" t="n">
-        <v>56670</v>
+        <v>62581</v>
       </c>
       <c r="F152" t="n">
-        <v>3326</v>
+        <v>6910</v>
       </c>
       <c r="G152" t="n">
-        <v>25193</v>
+        <v>18372</v>
       </c>
       <c r="H152" t="n">
-        <v>5567</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>13526</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2259</v>
+      </c>
       <c r="J152" t="n">
-        <v>14157</v>
+        <v>13828</v>
       </c>
       <c r="K152" t="n">
-        <v>4229</v>
+        <v>4314</v>
       </c>
       <c r="L152" t="n">
-        <v>4198</v>
+        <v>3372</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7154,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7145,32 +7165,30 @@
         <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>51436</v>
+        <v>56670</v>
       </c>
       <c r="F153" t="n">
-        <v>4089</v>
+        <v>3326</v>
       </c>
       <c r="G153" t="n">
-        <v>11951</v>
+        <v>25193</v>
       </c>
       <c r="H153" t="n">
-        <v>7636</v>
-      </c>
-      <c r="I153" t="n">
-        <v>5868</v>
-      </c>
+        <v>5567</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>7991</v>
+        <v>14157</v>
       </c>
       <c r="K153" t="n">
-        <v>5334</v>
+        <v>4229</v>
       </c>
       <c r="L153" t="n">
-        <v>8567</v>
+        <v>4198</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7197,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -7190,30 +7208,32 @@
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>51064</v>
+        <v>51436</v>
       </c>
       <c r="F154" t="n">
-        <v>4551</v>
+        <v>4089</v>
       </c>
       <c r="G154" t="n">
-        <v>18713</v>
+        <v>11951</v>
       </c>
       <c r="H154" t="n">
-        <v>6151</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>7636</v>
+      </c>
+      <c r="I154" t="n">
+        <v>5868</v>
+      </c>
       <c r="J154" t="n">
-        <v>11546</v>
+        <v>7991</v>
       </c>
       <c r="K154" t="n">
-        <v>5545</v>
+        <v>5334</v>
       </c>
       <c r="L154" t="n">
-        <v>4558</v>
+        <v>8567</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7463,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -7454,32 +7474,32 @@
         <v>14</v>
       </c>
       <c r="E160" t="n">
-        <v>41512</v>
+        <v>48193</v>
       </c>
       <c r="F160" t="n">
-        <v>3532</v>
+        <v>1806</v>
       </c>
       <c r="G160" t="n">
-        <v>7033</v>
+        <v>21699</v>
       </c>
       <c r="H160" t="n">
-        <v>12029</v>
+        <v>3871</v>
       </c>
       <c r="I160" t="n">
-        <v>4074</v>
+        <v>6711</v>
       </c>
       <c r="J160" t="n">
-        <v>10571</v>
+        <v>11465</v>
       </c>
       <c r="K160" t="n">
-        <v>1018</v>
+        <v>1457</v>
       </c>
       <c r="L160" t="n">
-        <v>3255</v>
+        <v>1184</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7508,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -7499,32 +7519,32 @@
         <v>14</v>
       </c>
       <c r="E161" t="n">
-        <v>39863</v>
+        <v>41512</v>
       </c>
       <c r="F161" t="n">
-        <v>3551</v>
+        <v>3532</v>
       </c>
       <c r="G161" t="n">
-        <v>12010</v>
+        <v>7033</v>
       </c>
       <c r="H161" t="n">
-        <v>8294</v>
+        <v>12029</v>
       </c>
       <c r="I161" t="n">
-        <v>1826</v>
+        <v>4074</v>
       </c>
       <c r="J161" t="n">
-        <v>9809</v>
+        <v>10571</v>
       </c>
       <c r="K161" t="n">
-        <v>2274</v>
+        <v>1018</v>
       </c>
       <c r="L161" t="n">
-        <v>2099</v>
+        <v>3255</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7553,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -7544,32 +7564,32 @@
         <v>14</v>
       </c>
       <c r="E162" t="n">
-        <v>64848</v>
+        <v>39863</v>
       </c>
       <c r="F162" t="n">
-        <v>7433</v>
+        <v>3551</v>
       </c>
       <c r="G162" t="n">
-        <v>24502</v>
+        <v>12010</v>
       </c>
       <c r="H162" t="n">
-        <v>2842</v>
+        <v>8294</v>
       </c>
       <c r="I162" t="n">
-        <v>6792</v>
+        <v>1826</v>
       </c>
       <c r="J162" t="n">
-        <v>17575</v>
+        <v>9809</v>
       </c>
       <c r="K162" t="n">
-        <v>4141</v>
+        <v>2274</v>
       </c>
       <c r="L162" t="n">
-        <v>1563</v>
+        <v>2099</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -7578,7 +7598,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -7589,32 +7609,32 @@
         <v>14</v>
       </c>
       <c r="E163" t="n">
-        <v>50112</v>
+        <v>64848</v>
       </c>
       <c r="F163" t="n">
-        <v>4042</v>
+        <v>7433</v>
       </c>
       <c r="G163" t="n">
-        <v>15045</v>
+        <v>24502</v>
       </c>
       <c r="H163" t="n">
-        <v>9236</v>
+        <v>2842</v>
       </c>
       <c r="I163" t="n">
-        <v>2419</v>
+        <v>6792</v>
       </c>
       <c r="J163" t="n">
-        <v>13529</v>
+        <v>17575</v>
       </c>
       <c r="K163" t="n">
-        <v>2879</v>
+        <v>4141</v>
       </c>
       <c r="L163" t="n">
-        <v>2962</v>
+        <v>1563</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -7623,7 +7643,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -7634,30 +7654,32 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>47477</v>
+        <v>50112</v>
       </c>
       <c r="F164" t="n">
-        <v>2489</v>
+        <v>4042</v>
       </c>
       <c r="G164" t="n">
-        <v>17990</v>
+        <v>15045</v>
       </c>
       <c r="H164" t="n">
-        <v>4168</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>9236</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2419</v>
+      </c>
       <c r="J164" t="n">
-        <v>15717</v>
+        <v>13529</v>
       </c>
       <c r="K164" t="n">
-        <v>2727</v>
+        <v>2879</v>
       </c>
       <c r="L164" t="n">
-        <v>4386</v>
+        <v>2962</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7688,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -7677,32 +7699,30 @@
         <v>14</v>
       </c>
       <c r="E165" t="n">
-        <v>43286</v>
+        <v>47477</v>
       </c>
       <c r="F165" t="n">
-        <v>2589</v>
+        <v>2489</v>
       </c>
       <c r="G165" t="n">
-        <v>9376</v>
+        <v>17990</v>
       </c>
       <c r="H165" t="n">
-        <v>6031</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5874</v>
-      </c>
+        <v>4168</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>8273</v>
+        <v>15717</v>
       </c>
       <c r="K165" t="n">
-        <v>3920</v>
+        <v>2727</v>
       </c>
       <c r="L165" t="n">
-        <v>7223</v>
+        <v>4386</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7731,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -7722,30 +7742,32 @@
         <v>14</v>
       </c>
       <c r="E166" t="n">
-        <v>41759</v>
+        <v>43286</v>
       </c>
       <c r="F166" t="n">
-        <v>2790</v>
+        <v>2589</v>
       </c>
       <c r="G166" t="n">
-        <v>14490</v>
+        <v>9376</v>
       </c>
       <c r="H166" t="n">
-        <v>4792</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>6031</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5874</v>
+      </c>
       <c r="J166" t="n">
-        <v>12291</v>
+        <v>8273</v>
       </c>
       <c r="K166" t="n">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="L166" t="n">
-        <v>3473</v>
+        <v>7223</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7997,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -7986,32 +8008,32 @@
         <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>68761</v>
+        <v>78942</v>
       </c>
       <c r="F172" t="n">
-        <v>3536</v>
+        <v>1764</v>
       </c>
       <c r="G172" t="n">
-        <v>8874</v>
+        <v>28313</v>
       </c>
       <c r="H172" t="n">
-        <v>15379</v>
+        <v>3157</v>
       </c>
       <c r="I172" t="n">
-        <v>6333</v>
+        <v>5885</v>
       </c>
       <c r="J172" t="n">
-        <v>25856</v>
+        <v>26794</v>
       </c>
       <c r="K172" t="n">
-        <v>1934</v>
+        <v>2364</v>
       </c>
       <c r="L172" t="n">
-        <v>6849</v>
+        <v>10665</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8042,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -8031,32 +8053,32 @@
         <v>15</v>
       </c>
       <c r="E173" t="n">
-        <v>65983</v>
+        <v>68761</v>
       </c>
       <c r="F173" t="n">
-        <v>3500</v>
+        <v>3536</v>
       </c>
       <c r="G173" t="n">
-        <v>15643</v>
+        <v>8874</v>
       </c>
       <c r="H173" t="n">
-        <v>10451</v>
+        <v>15379</v>
       </c>
       <c r="I173" t="n">
-        <v>2851</v>
+        <v>6333</v>
       </c>
       <c r="J173" t="n">
-        <v>24923</v>
+        <v>25856</v>
       </c>
       <c r="K173" t="n">
-        <v>4271</v>
+        <v>1934</v>
       </c>
       <c r="L173" t="n">
-        <v>4344</v>
+        <v>6849</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8087,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -8076,32 +8098,32 @@
         <v>15</v>
       </c>
       <c r="E174" t="n">
-        <v>108937</v>
+        <v>65983</v>
       </c>
       <c r="F174" t="n">
-        <v>8002</v>
+        <v>3500</v>
       </c>
       <c r="G174" t="n">
-        <v>32008</v>
+        <v>15643</v>
       </c>
       <c r="H174" t="n">
-        <v>3404</v>
+        <v>10451</v>
       </c>
       <c r="I174" t="n">
-        <v>12528</v>
+        <v>2851</v>
       </c>
       <c r="J174" t="n">
-        <v>43531</v>
+        <v>24923</v>
       </c>
       <c r="K174" t="n">
-        <v>7144</v>
+        <v>4271</v>
       </c>
       <c r="L174" t="n">
-        <v>2320</v>
+        <v>4344</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -8110,7 +8132,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -8121,32 +8143,32 @@
         <v>15</v>
       </c>
       <c r="E175" t="n">
-        <v>85680</v>
+        <v>108937</v>
       </c>
       <c r="F175" t="n">
-        <v>2933</v>
+        <v>8002</v>
       </c>
       <c r="G175" t="n">
-        <v>28960</v>
+        <v>32008</v>
       </c>
       <c r="H175" t="n">
-        <v>2447</v>
+        <v>3404</v>
       </c>
       <c r="I175" t="n">
-        <v>3513</v>
+        <v>12528</v>
       </c>
       <c r="J175" t="n">
-        <v>39458</v>
+        <v>43531</v>
       </c>
       <c r="K175" t="n">
-        <v>4450</v>
+        <v>7144</v>
       </c>
       <c r="L175" t="n">
-        <v>3919</v>
+        <v>2320</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8177,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -8166,30 +8188,32 @@
         <v>15</v>
       </c>
       <c r="E176" t="n">
-        <v>80191</v>
+        <v>85680</v>
       </c>
       <c r="F176" t="n">
-        <v>2150</v>
+        <v>2933</v>
       </c>
       <c r="G176" t="n">
-        <v>23336</v>
+        <v>28960</v>
       </c>
       <c r="H176" t="n">
-        <v>3582</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>2447</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3513</v>
+      </c>
       <c r="J176" t="n">
-        <v>38943</v>
+        <v>39458</v>
       </c>
       <c r="K176" t="n">
-        <v>5060</v>
+        <v>4450</v>
       </c>
       <c r="L176" t="n">
-        <v>7120</v>
+        <v>3919</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8222,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -8209,32 +8233,30 @@
         <v>15</v>
       </c>
       <c r="E177" t="n">
-        <v>72820</v>
+        <v>80191</v>
       </c>
       <c r="F177" t="n">
-        <v>2471</v>
+        <v>2150</v>
       </c>
       <c r="G177" t="n">
-        <v>12010</v>
+        <v>23336</v>
       </c>
       <c r="H177" t="n">
-        <v>6790</v>
-      </c>
-      <c r="I177" t="n">
-        <v>10882</v>
-      </c>
+        <v>3582</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>21012</v>
+        <v>38943</v>
       </c>
       <c r="K177" t="n">
-        <v>7691</v>
+        <v>5060</v>
       </c>
       <c r="L177" t="n">
-        <v>11964</v>
+        <v>7120</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8265,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -8254,30 +8276,32 @@
         <v>15</v>
       </c>
       <c r="E178" t="n">
-        <v>70736</v>
+        <v>72820</v>
       </c>
       <c r="F178" t="n">
-        <v>2701</v>
+        <v>2471</v>
       </c>
       <c r="G178" t="n">
-        <v>18448</v>
+        <v>12010</v>
       </c>
       <c r="H178" t="n">
-        <v>5398</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>6790</v>
+      </c>
+      <c r="I178" t="n">
+        <v>10882</v>
+      </c>
       <c r="J178" t="n">
-        <v>29965</v>
+        <v>21012</v>
       </c>
       <c r="K178" t="n">
-        <v>7682</v>
+        <v>7691</v>
       </c>
       <c r="L178" t="n">
-        <v>6542</v>
+        <v>11964</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -8507,7 +8531,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -8518,32 +8542,30 @@
         <v>16</v>
       </c>
       <c r="E184" t="n">
-        <v>44067</v>
-      </c>
-      <c r="F184" t="n">
-        <v>799</v>
-      </c>
+        <v>45968</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>2617</v>
+        <v>7851</v>
       </c>
       <c r="H184" t="n">
-        <v>5803</v>
+        <v>1114</v>
       </c>
       <c r="I184" t="n">
-        <v>3141</v>
+        <v>3972</v>
       </c>
       <c r="J184" t="n">
-        <v>26177</v>
+        <v>23768</v>
       </c>
       <c r="K184" t="n">
-        <v>1318</v>
+        <v>1678</v>
       </c>
       <c r="L184" t="n">
-        <v>4212</v>
+        <v>7585</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -8552,7 +8574,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -8563,32 +8585,32 @@
         <v>16</v>
       </c>
       <c r="E185" t="n">
-        <v>40269</v>
+        <v>44067</v>
       </c>
       <c r="F185" t="n">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="G185" t="n">
-        <v>4555</v>
+        <v>2617</v>
       </c>
       <c r="H185" t="n">
-        <v>3750</v>
+        <v>5803</v>
       </c>
       <c r="I185" t="n">
-        <v>1237</v>
+        <v>3141</v>
       </c>
       <c r="J185" t="n">
-        <v>24375</v>
+        <v>26177</v>
       </c>
       <c r="K185" t="n">
-        <v>2842</v>
+        <v>1318</v>
       </c>
       <c r="L185" t="n">
-        <v>2690</v>
+        <v>4212</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -8597,7 +8619,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -8608,32 +8630,32 @@
         <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>72839</v>
+        <v>40269</v>
       </c>
       <c r="F186" t="n">
-        <v>2324</v>
+        <v>820</v>
       </c>
       <c r="G186" t="n">
-        <v>10583</v>
+        <v>4555</v>
       </c>
       <c r="H186" t="n">
-        <v>1268</v>
+        <v>3750</v>
       </c>
       <c r="I186" t="n">
-        <v>6281</v>
+        <v>1237</v>
       </c>
       <c r="J186" t="n">
-        <v>47233</v>
+        <v>24375</v>
       </c>
       <c r="K186" t="n">
-        <v>4062</v>
+        <v>2842</v>
       </c>
       <c r="L186" t="n">
-        <v>1088</v>
+        <v>2690</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -8642,7 +8664,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -8653,32 +8675,32 @@
         <v>16</v>
       </c>
       <c r="E187" t="n">
-        <v>51106</v>
+        <v>72839</v>
       </c>
       <c r="F187" t="n">
-        <v>599</v>
+        <v>2324</v>
       </c>
       <c r="G187" t="n">
-        <v>7674</v>
+        <v>10583</v>
       </c>
       <c r="H187" t="n">
-        <v>1056</v>
+        <v>1268</v>
       </c>
       <c r="I187" t="n">
-        <v>1710</v>
+        <v>6281</v>
       </c>
       <c r="J187" t="n">
-        <v>30445</v>
+        <v>47233</v>
       </c>
       <c r="K187" t="n">
-        <v>2770</v>
+        <v>4062</v>
       </c>
       <c r="L187" t="n">
-        <v>6852</v>
+        <v>1088</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8709,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -8698,30 +8720,32 @@
         <v>16</v>
       </c>
       <c r="E188" t="n">
-        <v>47741</v>
+        <v>51106</v>
       </c>
       <c r="F188" t="n">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="G188" t="n">
-        <v>6197</v>
+        <v>7674</v>
       </c>
       <c r="H188" t="n">
-        <v>1103</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1056</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1710</v>
+      </c>
       <c r="J188" t="n">
-        <v>30100</v>
+        <v>30445</v>
       </c>
       <c r="K188" t="n">
-        <v>2865</v>
+        <v>2770</v>
       </c>
       <c r="L188" t="n">
-        <v>6979</v>
+        <v>6852</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -8730,7 +8754,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -8741,32 +8765,30 @@
         <v>16</v>
       </c>
       <c r="E189" t="n">
-        <v>45436</v>
+        <v>47741</v>
       </c>
       <c r="F189" t="n">
-        <v>572</v>
+        <v>497</v>
       </c>
       <c r="G189" t="n">
-        <v>3734</v>
+        <v>6197</v>
       </c>
       <c r="H189" t="n">
-        <v>1768</v>
-      </c>
-      <c r="I189" t="n">
-        <v>6382</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>20935</v>
+        <v>30100</v>
       </c>
       <c r="K189" t="n">
-        <v>4933</v>
+        <v>2865</v>
       </c>
       <c r="L189" t="n">
-        <v>7112</v>
+        <v>6979</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8797,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -8786,30 +8808,32 @@
         <v>16</v>
       </c>
       <c r="E190" t="n">
-        <v>45573</v>
+        <v>45436</v>
       </c>
       <c r="F190" t="n">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="G190" t="n">
-        <v>5788</v>
+        <v>3734</v>
       </c>
       <c r="H190" t="n">
-        <v>1628</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1768</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6382</v>
+      </c>
       <c r="J190" t="n">
-        <v>29192</v>
+        <v>20935</v>
       </c>
       <c r="K190" t="n">
-        <v>4843</v>
+        <v>4933</v>
       </c>
       <c r="L190" t="n">
-        <v>3523</v>
+        <v>7112</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -9039,7 +9063,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -9050,32 +9074,32 @@
         <v>17</v>
       </c>
       <c r="E196" t="n">
-        <v>43366</v>
+        <v>49965</v>
       </c>
       <c r="F196" t="n">
-        <v>2191</v>
+        <v>568</v>
       </c>
       <c r="G196" t="n">
-        <v>4759</v>
+        <v>18089</v>
       </c>
       <c r="H196" t="n">
-        <v>9397</v>
+        <v>2279</v>
       </c>
       <c r="I196" t="n">
-        <v>3596</v>
+        <v>4935</v>
       </c>
       <c r="J196" t="n">
-        <v>18093</v>
+        <v>22002</v>
       </c>
       <c r="K196" t="n">
-        <v>1282</v>
+        <v>2092</v>
       </c>
       <c r="L196" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -9084,7 +9108,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -9095,32 +9119,32 @@
         <v>17</v>
       </c>
       <c r="E197" t="n">
-        <v>40672</v>
+        <v>43366</v>
       </c>
       <c r="F197" t="n">
-        <v>2242</v>
+        <v>2191</v>
       </c>
       <c r="G197" t="n">
-        <v>7883</v>
+        <v>4759</v>
       </c>
       <c r="H197" t="n">
-        <v>6812</v>
+        <v>9397</v>
       </c>
       <c r="I197" t="n">
-        <v>1579</v>
+        <v>3596</v>
       </c>
       <c r="J197" t="n">
-        <v>16895</v>
+        <v>18093</v>
       </c>
       <c r="K197" t="n">
-        <v>2777</v>
+        <v>1282</v>
       </c>
       <c r="L197" t="n">
-        <v>2484</v>
+        <v>4048</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9153,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -9140,32 +9164,32 @@
         <v>17</v>
       </c>
       <c r="E198" t="n">
-        <v>73861</v>
+        <v>40672</v>
       </c>
       <c r="F198" t="n">
-        <v>5353</v>
+        <v>2242</v>
       </c>
       <c r="G198" t="n">
-        <v>19898</v>
+        <v>7883</v>
       </c>
       <c r="H198" t="n">
-        <v>2253</v>
+        <v>6812</v>
       </c>
       <c r="I198" t="n">
-        <v>7563</v>
+        <v>1579</v>
       </c>
       <c r="J198" t="n">
-        <v>32728</v>
+        <v>16895</v>
       </c>
       <c r="K198" t="n">
-        <v>4671</v>
+        <v>2777</v>
       </c>
       <c r="L198" t="n">
-        <v>1395</v>
+        <v>2484</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9198,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -9185,32 +9209,32 @@
         <v>17</v>
       </c>
       <c r="E199" t="n">
-        <v>55075</v>
+        <v>73861</v>
       </c>
       <c r="F199" t="n">
-        <v>1624</v>
+        <v>5353</v>
       </c>
       <c r="G199" t="n">
-        <v>17471</v>
+        <v>19898</v>
       </c>
       <c r="H199" t="n">
-        <v>2357</v>
+        <v>2253</v>
       </c>
       <c r="I199" t="n">
-        <v>1874</v>
+        <v>7563</v>
       </c>
       <c r="J199" t="n">
-        <v>19358</v>
+        <v>32728</v>
       </c>
       <c r="K199" t="n">
-        <v>3004</v>
+        <v>4671</v>
       </c>
       <c r="L199" t="n">
-        <v>9387</v>
+        <v>1395</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9243,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -9230,30 +9254,32 @@
         <v>17</v>
       </c>
       <c r="E200" t="n">
-        <v>50128</v>
+        <v>55075</v>
       </c>
       <c r="F200" t="n">
-        <v>1544</v>
+        <v>1624</v>
       </c>
       <c r="G200" t="n">
-        <v>12727</v>
+        <v>17471</v>
       </c>
       <c r="H200" t="n">
-        <v>3302</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>2357</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1874</v>
+      </c>
       <c r="J200" t="n">
-        <v>26836</v>
+        <v>19358</v>
       </c>
       <c r="K200" t="n">
-        <v>3234</v>
+        <v>3004</v>
       </c>
       <c r="L200" t="n">
-        <v>2485</v>
+        <v>9387</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -9262,7 +9288,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -9273,32 +9299,30 @@
         <v>17</v>
       </c>
       <c r="E201" t="n">
-        <v>45869</v>
+        <v>50128</v>
       </c>
       <c r="F201" t="n">
-        <v>1596</v>
+        <v>1544</v>
       </c>
       <c r="G201" t="n">
-        <v>6426</v>
+        <v>12727</v>
       </c>
       <c r="H201" t="n">
-        <v>4204</v>
-      </c>
-      <c r="I201" t="n">
-        <v>6801</v>
-      </c>
+        <v>3302</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>14664</v>
+        <v>26836</v>
       </c>
       <c r="K201" t="n">
-        <v>4704</v>
+        <v>3234</v>
       </c>
       <c r="L201" t="n">
-        <v>7474</v>
+        <v>2485</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -9307,7 +9331,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -9318,30 +9342,32 @@
         <v>17</v>
       </c>
       <c r="E202" t="n">
-        <v>45565</v>
+        <v>45869</v>
       </c>
       <c r="F202" t="n">
-        <v>1690</v>
+        <v>1596</v>
       </c>
       <c r="G202" t="n">
-        <v>10936</v>
+        <v>6426</v>
       </c>
       <c r="H202" t="n">
-        <v>3447</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>4204</v>
+      </c>
+      <c r="I202" t="n">
+        <v>6801</v>
+      </c>
       <c r="J202" t="n">
-        <v>21256</v>
+        <v>14664</v>
       </c>
       <c r="K202" t="n">
-        <v>4597</v>
+        <v>4704</v>
       </c>
       <c r="L202" t="n">
-        <v>3639</v>
+        <v>7474</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9597,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -9582,32 +9608,32 @@
         <v>18</v>
       </c>
       <c r="E208" t="n">
-        <v>43355</v>
+        <v>52044</v>
       </c>
       <c r="F208" t="n">
-        <v>5236</v>
+        <v>3302</v>
       </c>
       <c r="G208" t="n">
-        <v>7357</v>
+        <v>25791</v>
       </c>
       <c r="H208" t="n">
-        <v>14479</v>
+        <v>5392</v>
       </c>
       <c r="I208" t="n">
-        <v>3172</v>
+        <v>3482</v>
       </c>
       <c r="J208" t="n">
-        <v>8090</v>
+        <v>10018</v>
       </c>
       <c r="K208" t="n">
-        <v>1412</v>
+        <v>1823</v>
       </c>
       <c r="L208" t="n">
-        <v>3609</v>
+        <v>2236</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -9616,7 +9642,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -9627,32 +9653,32 @@
         <v>18</v>
       </c>
       <c r="E209" t="n">
-        <v>41900</v>
+        <v>43355</v>
       </c>
       <c r="F209" t="n">
-        <v>5457</v>
+        <v>5236</v>
       </c>
       <c r="G209" t="n">
-        <v>12401</v>
+        <v>7357</v>
       </c>
       <c r="H209" t="n">
-        <v>10695</v>
+        <v>14479</v>
       </c>
       <c r="I209" t="n">
-        <v>1418</v>
+        <v>3172</v>
       </c>
       <c r="J209" t="n">
-        <v>7316</v>
+        <v>8090</v>
       </c>
       <c r="K209" t="n">
-        <v>2821</v>
+        <v>1412</v>
       </c>
       <c r="L209" t="n">
-        <v>1792</v>
+        <v>3609</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9687,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -9672,32 +9698,32 @@
         <v>18</v>
       </c>
       <c r="E210" t="n">
-        <v>78332</v>
+        <v>41900</v>
       </c>
       <c r="F210" t="n">
-        <v>12019</v>
+        <v>5457</v>
       </c>
       <c r="G210" t="n">
-        <v>33709</v>
+        <v>12401</v>
       </c>
       <c r="H210" t="n">
-        <v>4238</v>
+        <v>10695</v>
       </c>
       <c r="I210" t="n">
-        <v>6059</v>
+        <v>1418</v>
       </c>
       <c r="J210" t="n">
-        <v>15253</v>
+        <v>7316</v>
       </c>
       <c r="K210" t="n">
-        <v>5150</v>
+        <v>2821</v>
       </c>
       <c r="L210" t="n">
-        <v>1904</v>
+        <v>1792</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9732,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -9717,32 +9743,32 @@
         <v>18</v>
       </c>
       <c r="E211" t="n">
-        <v>57204</v>
+        <v>78332</v>
       </c>
       <c r="F211" t="n">
-        <v>6195</v>
+        <v>12019</v>
       </c>
       <c r="G211" t="n">
-        <v>26616</v>
+        <v>33709</v>
       </c>
       <c r="H211" t="n">
-        <v>5411</v>
+        <v>4238</v>
       </c>
       <c r="I211" t="n">
-        <v>1644</v>
+        <v>6059</v>
       </c>
       <c r="J211" t="n">
-        <v>11802</v>
+        <v>15253</v>
       </c>
       <c r="K211" t="n">
-        <v>3291</v>
+        <v>5150</v>
       </c>
       <c r="L211" t="n">
-        <v>2245</v>
+        <v>1904</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -9751,7 +9777,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -9762,30 +9788,32 @@
         <v>18</v>
       </c>
       <c r="E212" t="n">
-        <v>51029</v>
+        <v>57204</v>
       </c>
       <c r="F212" t="n">
-        <v>3668</v>
+        <v>6195</v>
       </c>
       <c r="G212" t="n">
-        <v>20338</v>
+        <v>26616</v>
       </c>
       <c r="H212" t="n">
-        <v>6457</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>5411</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1644</v>
+      </c>
       <c r="J212" t="n">
-        <v>12879</v>
+        <v>11802</v>
       </c>
       <c r="K212" t="n">
-        <v>3460</v>
+        <v>3291</v>
       </c>
       <c r="L212" t="n">
-        <v>4227</v>
+        <v>2245</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -9794,7 +9822,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -9805,32 +9833,30 @@
         <v>18</v>
       </c>
       <c r="E213" t="n">
-        <v>45808</v>
+        <v>51029</v>
       </c>
       <c r="F213" t="n">
-        <v>3799</v>
+        <v>3668</v>
       </c>
       <c r="G213" t="n">
-        <v>10082</v>
+        <v>20338</v>
       </c>
       <c r="H213" t="n">
-        <v>8847</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4431</v>
-      </c>
+        <v>6457</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>6269</v>
+        <v>12879</v>
       </c>
       <c r="K213" t="n">
-        <v>4254</v>
+        <v>3460</v>
       </c>
       <c r="L213" t="n">
-        <v>8126</v>
+        <v>4227</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -9839,7 +9865,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -9850,30 +9876,32 @@
         <v>18</v>
       </c>
       <c r="E214" t="n">
-        <v>44671</v>
+        <v>45808</v>
       </c>
       <c r="F214" t="n">
-        <v>4461</v>
+        <v>3799</v>
       </c>
       <c r="G214" t="n">
-        <v>16616</v>
+        <v>10082</v>
       </c>
       <c r="H214" t="n">
-        <v>6366</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>8847</v>
+      </c>
+      <c r="I214" t="n">
+        <v>4431</v>
+      </c>
       <c r="J214" t="n">
-        <v>9180</v>
+        <v>6269</v>
       </c>
       <c r="K214" t="n">
-        <v>4390</v>
+        <v>4254</v>
       </c>
       <c r="L214" t="n">
-        <v>3658</v>
+        <v>8126</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -10103,7 +10131,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -10114,32 +10142,32 @@
         <v>19</v>
       </c>
       <c r="E220" t="n">
-        <v>38700</v>
+        <v>47460</v>
       </c>
       <c r="F220" t="n">
-        <v>4963</v>
+        <v>2710</v>
       </c>
       <c r="G220" t="n">
-        <v>6793</v>
+        <v>24744</v>
       </c>
       <c r="H220" t="n">
-        <v>11465</v>
+        <v>3963</v>
       </c>
       <c r="I220" t="n">
-        <v>2854</v>
+        <v>3238</v>
       </c>
       <c r="J220" t="n">
-        <v>7826</v>
+        <v>10130</v>
       </c>
       <c r="K220" t="n">
-        <v>1211</v>
+        <v>1725</v>
       </c>
       <c r="L220" t="n">
-        <v>3588</v>
+        <v>950</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10176,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -10159,32 +10187,32 @@
         <v>19</v>
       </c>
       <c r="E221" t="n">
-        <v>37846</v>
+        <v>38700</v>
       </c>
       <c r="F221" t="n">
-        <v>5355</v>
+        <v>4963</v>
       </c>
       <c r="G221" t="n">
-        <v>11666</v>
+        <v>6793</v>
       </c>
       <c r="H221" t="n">
-        <v>8677</v>
+        <v>11465</v>
       </c>
       <c r="I221" t="n">
-        <v>1350</v>
+        <v>2854</v>
       </c>
       <c r="J221" t="n">
-        <v>6578</v>
+        <v>7826</v>
       </c>
       <c r="K221" t="n">
-        <v>2493</v>
+        <v>1211</v>
       </c>
       <c r="L221" t="n">
-        <v>1727</v>
+        <v>3588</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10221,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -10204,32 +10232,32 @@
         <v>19</v>
       </c>
       <c r="E222" t="n">
-        <v>74270</v>
+        <v>37846</v>
       </c>
       <c r="F222" t="n">
-        <v>11690</v>
+        <v>5355</v>
       </c>
       <c r="G222" t="n">
-        <v>30673</v>
+        <v>11666</v>
       </c>
       <c r="H222" t="n">
-        <v>3465</v>
+        <v>8677</v>
       </c>
       <c r="I222" t="n">
-        <v>4949</v>
+        <v>1350</v>
       </c>
       <c r="J222" t="n">
-        <v>16692</v>
+        <v>6578</v>
       </c>
       <c r="K222" t="n">
-        <v>4990</v>
+        <v>2493</v>
       </c>
       <c r="L222" t="n">
-        <v>1811</v>
+        <v>1727</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10266,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -10249,32 +10277,32 @@
         <v>19</v>
       </c>
       <c r="E223" t="n">
-        <v>51995</v>
+        <v>74270</v>
       </c>
       <c r="F223" t="n">
-        <v>6441</v>
+        <v>11690</v>
       </c>
       <c r="G223" t="n">
-        <v>22057</v>
+        <v>30673</v>
       </c>
       <c r="H223" t="n">
-        <v>5330</v>
+        <v>3465</v>
       </c>
       <c r="I223" t="n">
-        <v>1587</v>
+        <v>4949</v>
       </c>
       <c r="J223" t="n">
-        <v>10821</v>
+        <v>16692</v>
       </c>
       <c r="K223" t="n">
-        <v>3128</v>
+        <v>4990</v>
       </c>
       <c r="L223" t="n">
-        <v>2631</v>
+        <v>1811</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -10283,7 +10311,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -10294,30 +10322,32 @@
         <v>19</v>
       </c>
       <c r="E224" t="n">
-        <v>46307</v>
+        <v>51995</v>
       </c>
       <c r="F224" t="n">
-        <v>3295</v>
+        <v>6441</v>
       </c>
       <c r="G224" t="n">
-        <v>19533</v>
+        <v>22057</v>
       </c>
       <c r="H224" t="n">
-        <v>5956</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>5330</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1587</v>
+      </c>
       <c r="J224" t="n">
-        <v>11932</v>
+        <v>10821</v>
       </c>
       <c r="K224" t="n">
-        <v>3678</v>
+        <v>3128</v>
       </c>
       <c r="L224" t="n">
-        <v>1913</v>
+        <v>2631</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10356,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -10337,32 +10367,30 @@
         <v>19</v>
       </c>
       <c r="E225" t="n">
-        <v>40066</v>
+        <v>46307</v>
       </c>
       <c r="F225" t="n">
-        <v>3740</v>
+        <v>3295</v>
       </c>
       <c r="G225" t="n">
-        <v>8721</v>
+        <v>19533</v>
       </c>
       <c r="H225" t="n">
-        <v>7688</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3301</v>
-      </c>
+        <v>5956</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>5962</v>
+        <v>11932</v>
       </c>
       <c r="K225" t="n">
-        <v>3894</v>
+        <v>3678</v>
       </c>
       <c r="L225" t="n">
-        <v>6760</v>
+        <v>1913</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10399,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -10382,30 +10410,32 @@
         <v>19</v>
       </c>
       <c r="E226" t="n">
-        <v>40632</v>
+        <v>40066</v>
       </c>
       <c r="F226" t="n">
-        <v>4433</v>
+        <v>3740</v>
       </c>
       <c r="G226" t="n">
-        <v>14642</v>
+        <v>8721</v>
       </c>
       <c r="H226" t="n">
-        <v>5991</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>7688</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3301</v>
+      </c>
       <c r="J226" t="n">
-        <v>7649</v>
+        <v>5962</v>
       </c>
       <c r="K226" t="n">
-        <v>4217</v>
+        <v>3894</v>
       </c>
       <c r="L226" t="n">
-        <v>3700</v>
+        <v>6760</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10665,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>39971</v>
+        <v>39591</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -10646,32 +10676,32 @@
         <v>20</v>
       </c>
       <c r="E232" t="n">
-        <v>47145</v>
+        <v>56285</v>
       </c>
       <c r="F232" t="n">
-        <v>6965</v>
+        <v>4776</v>
       </c>
       <c r="G232" t="n">
-        <v>8154</v>
+        <v>21568</v>
       </c>
       <c r="H232" t="n">
-        <v>15115</v>
+        <v>5329</v>
       </c>
       <c r="I232" t="n">
-        <v>3570</v>
+        <v>4114</v>
       </c>
       <c r="J232" t="n">
-        <v>8013</v>
+        <v>4076</v>
       </c>
       <c r="K232" t="n">
-        <v>1387</v>
+        <v>2033</v>
       </c>
       <c r="L232" t="n">
-        <v>3941</v>
+        <v>14389</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -10680,7 +10710,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>40251</v>
+        <v>39971</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -10691,32 +10721,32 @@
         <v>20</v>
       </c>
       <c r="E233" t="n">
-        <v>46626</v>
+        <v>47145</v>
       </c>
       <c r="F233" t="n">
-        <v>7065</v>
+        <v>6965</v>
       </c>
       <c r="G233" t="n">
-        <v>14310</v>
+        <v>8154</v>
       </c>
       <c r="H233" t="n">
-        <v>11481</v>
+        <v>15115</v>
       </c>
       <c r="I233" t="n">
-        <v>1721</v>
+        <v>3570</v>
       </c>
       <c r="J233" t="n">
-        <v>6930</v>
+        <v>8013</v>
       </c>
       <c r="K233" t="n">
-        <v>3030</v>
+        <v>1387</v>
       </c>
       <c r="L233" t="n">
-        <v>2089</v>
+        <v>3941</v>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10755,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>41021</v>
+        <v>40251</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -10736,32 +10766,32 @@
         <v>20</v>
       </c>
       <c r="E234" t="n">
-        <v>85337</v>
+        <v>46626</v>
       </c>
       <c r="F234" t="n">
-        <v>14850</v>
+        <v>7065</v>
       </c>
       <c r="G234" t="n">
-        <v>36775</v>
+        <v>14310</v>
       </c>
       <c r="H234" t="n">
-        <v>4260</v>
+        <v>11481</v>
       </c>
       <c r="I234" t="n">
-        <v>5812</v>
+        <v>1721</v>
       </c>
       <c r="J234" t="n">
-        <v>15491</v>
+        <v>6930</v>
       </c>
       <c r="K234" t="n">
-        <v>5919</v>
+        <v>3030</v>
       </c>
       <c r="L234" t="n">
-        <v>2230</v>
+        <v>2089</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>president</t>
+          <t>regional</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10800,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>41070</v>
+        <v>41021</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -10781,32 +10811,32 @@
         <v>20</v>
       </c>
       <c r="E235" t="n">
-        <v>62422</v>
+        <v>85337</v>
       </c>
       <c r="F235" t="n">
-        <v>9055</v>
+        <v>14850</v>
       </c>
       <c r="G235" t="n">
-        <v>21881</v>
+        <v>36775</v>
       </c>
       <c r="H235" t="n">
-        <v>11676</v>
+        <v>4260</v>
       </c>
       <c r="I235" t="n">
-        <v>1800</v>
+        <v>5812</v>
       </c>
       <c r="J235" t="n">
-        <v>10472</v>
+        <v>15491</v>
       </c>
       <c r="K235" t="n">
-        <v>3940</v>
+        <v>5919</v>
       </c>
       <c r="L235" t="n">
-        <v>3598</v>
+        <v>2230</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>legislative</t>
+          <t>president</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10845,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>41723</v>
+        <v>41070</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -10826,30 +10856,32 @@
         <v>20</v>
       </c>
       <c r="E236" t="n">
-        <v>54966</v>
+        <v>62422</v>
       </c>
       <c r="F236" t="n">
-        <v>5692</v>
+        <v>9055</v>
       </c>
       <c r="G236" t="n">
-        <v>20502</v>
+        <v>21881</v>
       </c>
       <c r="H236" t="n">
-        <v>5990</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>11676</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1800</v>
+      </c>
       <c r="J236" t="n">
-        <v>11467</v>
+        <v>10472</v>
       </c>
       <c r="K236" t="n">
-        <v>4112</v>
+        <v>3940</v>
       </c>
       <c r="L236" t="n">
-        <v>7203</v>
+        <v>3598</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>municipale</t>
+          <t>legislative</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10890,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>41784</v>
+        <v>41723</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -10869,32 +10901,30 @@
         <v>20</v>
       </c>
       <c r="E237" t="n">
-        <v>49075</v>
+        <v>54966</v>
       </c>
       <c r="F237" t="n">
-        <v>4974</v>
+        <v>5692</v>
       </c>
       <c r="G237" t="n">
-        <v>10575</v>
+        <v>20502</v>
       </c>
       <c r="H237" t="n">
-        <v>9498</v>
-      </c>
-      <c r="I237" t="n">
-        <v>4218</v>
-      </c>
+        <v>5990</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>5994</v>
+        <v>11467</v>
       </c>
       <c r="K237" t="n">
-        <v>4584</v>
+        <v>4112</v>
       </c>
       <c r="L237" t="n">
-        <v>9232</v>
+        <v>7203</v>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>municipale</t>
         </is>
       </c>
     </row>
@@ -10903,7 +10933,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>42344</v>
+        <v>41784</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -10914,30 +10944,32 @@
         <v>20</v>
       </c>
       <c r="E238" t="n">
-        <v>49130</v>
+        <v>49075</v>
       </c>
       <c r="F238" t="n">
-        <v>6100</v>
+        <v>4974</v>
       </c>
       <c r="G238" t="n">
-        <v>18315</v>
+        <v>10575</v>
       </c>
       <c r="H238" t="n">
-        <v>7348</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>9498</v>
+      </c>
+      <c r="I238" t="n">
+        <v>4218</v>
+      </c>
       <c r="J238" t="n">
-        <v>8340</v>
+        <v>5994</v>
       </c>
       <c r="K238" t="n">
-        <v>4977</v>
+        <v>4584</v>
       </c>
       <c r="L238" t="n">
-        <v>4050</v>
+        <v>9232</v>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>european</t>
         </is>
       </c>
     </row>

--- a/fondamentaux/data/results_by_districts_paris.xlsx
+++ b/fondamentaux/data/results_by_districts_paris.xlsx
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>39591</v>
+        <v>39516</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>41723</v>
+        <v>41721</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
